--- a/data/trans_bre/P28A_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P28A_1_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-4,98</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20,42</t>
+          <t>16,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,4</t>
+          <t>-10,48</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-23,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,32%</t>
+          <t>-7,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>160,55%</t>
+          <t>123,55%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-10,5%</t>
+          <t>-25,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-4,16%</t>
+          <t>-59,45%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 12,48</t>
+          <t>-26,77; 14,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,92; 33,14</t>
+          <t>-1,39; 34,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,01; 11,9</t>
+          <t>-45,3; 10,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-24,64; 29,58</t>
+          <t>-60,76; 3,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,63; 22,94</t>
+          <t>-33,95; 24,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,88; 449,06</t>
+          <t>-9,8; 747,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-53,81; 51,16</t>
+          <t>-75,21; 48,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-65,07; 163,54</t>
+          <t>-96,82; 27,75</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>-6,64</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,58</t>
+          <t>6,35</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>-11,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>21,31%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,11%</t>
+          <t>30,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-6,39%</t>
+          <t>-10,32%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 10,12</t>
+          <t>-17,58; 4,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 13,02</t>
+          <t>-8,96; 11,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 13,94</t>
+          <t>-3,39; 15,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 6,7</t>
+          <t>-16,4; 6,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,72; 19,96</t>
+          <t>-27,29; 7,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 65,6</t>
+          <t>-27,8; 54,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 70,25</t>
+          <t>-14,08; 93,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-35,93; 35,02</t>
+          <t>-47,98; 41,96</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,32</t>
+          <t>4,82</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>31,34%</t>
+          <t>19,65%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>11,58%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 11,36</t>
+          <t>-10,44; 14,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 10,32</t>
+          <t>-7,65; 11,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 16,9</t>
+          <t>-5,61; 14,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 11,1</t>
+          <t>-7,71; 11,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 21,61</t>
+          <t>-16,52; 28,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,83; 55,47</t>
+          <t>-28,78; 67,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 78,3</t>
+          <t>-20,11; 82,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-19,73; 78,32</t>
+          <t>-33,72; 79,78</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,79</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>31,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 6,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 12,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 10,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 8,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 12,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,92; 66,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 46,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,89; 45,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-2,88</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,03</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,54</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-3,83</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-4,77%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13,01%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14,13%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-15,74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-10,55; 5,63</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,61; 10,5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-4,95; 10,39</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-13,83; 3,45</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-16,17; 10,35</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-13,55; 54,68</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-16,23; 50,29</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-42,91; 19,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/P28A_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P28A_1_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-4,98</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>16,47</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-10,48</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-23,38</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-7,09%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>123,55%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-25,76%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-59,45%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-4.97674517945449</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>18.99233594085284</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-10.35658598034738</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-24.72812312797571</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.07085526880101886</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1.542671314801162</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.2421674052963517</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.6054439640859339</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-26,77; 14,45</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,39; 34,92</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-45,3; 10,78</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-60,76; 3,96</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-33,95; 24,87</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-9,8; 747,0</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-75,21; 48,08</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-96,82; 27,75</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-26.77164742407471</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>2.607753096404892</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-43.94887186521803</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-57.70920271305866</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.3394668402117763</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.03363012880524708</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.6910921997688438</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.9573006895634705</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>14.44682044304258</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>36.30430179664692</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>14.13007308996899</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>4.370245359108381</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.2487219828723981</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>6.385878232347705</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.5820329879454441</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.283734564500364</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-6,64</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,35</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-2,43</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-11,05%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,63%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>30,22%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-10,32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-17,58; 4,26</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,96; 11,25</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,39; 15,89</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-16,4; 6,99</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-27,29; 7,6</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-27,8; 54,01</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-14,08; 93,83</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-47,98; 41,96</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-6.285187771197442</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.8901243189647468</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>7.663936619279466</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-2.513680484249162</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.1045525627407465</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.03188841865194759</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.3213774407327991</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1051409698412109</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,22</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,67</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,82</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,23</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>3,9%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>7,62%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>19,65%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>11,58%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-17.48174963006563</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-9.282918466710893</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.507565525790256</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-16.12435989506533</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.2700299680847758</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.2710602424730087</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.0938507985411664</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4897151623757675</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-10,44; 14,41</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,65; 11,22</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,61; 14,82</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-7,71; 11,48</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-16,52; 28,63</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-28,78; 67,64</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-20,11; 82,71</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-33,72; 79,78</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.499812501006565</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>11.52520432011547</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>18.88840127216124</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.974434299140021</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.08316532164208178</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.528720966649294</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.030204417831091</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.4893691036621451</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.785097461912867</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.164126605993139</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.760185223059058</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>2.995785076185426</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.049032282260468</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.1010289254772394</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.2304628765974389</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1490793623930464</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.624309292925936</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.227906829550646</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.468241492705858</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-7.288895628904604</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.1360212316523712</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.2632574901061879</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.1554630553548452</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2895666653815427</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>14.03083648775385</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>12.01518104992591</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>16.53076460796549</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>12.45862460646725</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.2859471649337813</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.7479183012768158</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.855593514827104</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.8868141983286325</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-2,88</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,03</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,54</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-3,83</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-4,77%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>13,01%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>14,13%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-15,74%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-10,55; 5,63</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,61; 10,5</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,95; 10,39</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-13,83; 3,45</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-16,17; 10,35</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-13,55; 54,68</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-16,23; 50,29</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-42,91; 19,78</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-2.475105214508333</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.785368877521872</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4.644162746477065</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-3.575981789540844</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.04108346286800546</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1633030933878369</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.1740851467092848</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1441960496864785</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-9.847322126584578</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.986888201048766</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.908913729013815</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-14.86025288101245</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1541646558947879</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.1122381318498832</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1268853440191818</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.4350131530493982</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.571944084035009</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10.64259404165741</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>12.53298080028044</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.902792330118713</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.1036255586207417</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.5521795953209181</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.5457333021189903</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2103403048019309</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
